--- a/tbx/nowcastingoutputData/Example1_BVAR_loop_b1.xlsx
+++ b/tbx/nowcastingoutputData/Example1_BVAR_loop_b1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="234" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="234" uniqueCount="68">
   <si>
     <t>b1</t>
   </si>
@@ -164,64 +164,61 @@
     <t>groups</t>
   </si>
   <si>
-    <t>2   4   5   6   7  11  12</t>
-  </si>
-  <si>
-    <t>1  3  5  7  8  9</t>
-  </si>
-  <si>
-    <t>3   4   6   8  12</t>
-  </si>
-  <si>
-    <t>2  3  4  5  6  8</t>
-  </si>
-  <si>
-    <t>2   3   7   8   9  11  12</t>
-  </si>
-  <si>
-    <t>1   7  10  11  12</t>
-  </si>
-  <si>
-    <t>4   5   6   7   8   9  10  11</t>
-  </si>
-  <si>
-    <t>1   2   4   5   6   9  12</t>
-  </si>
-  <si>
-    <t>1   3   5   6   7   8   9  10  11  12</t>
-  </si>
-  <si>
-    <t>1   2   3   4   5   6   7   8   9  12</t>
-  </si>
-  <si>
-    <t>2  2  3  3  3  1  1</t>
-  </si>
-  <si>
-    <t>2  2  3  3  3  1</t>
-  </si>
-  <si>
-    <t>2  2  3  3  1</t>
-  </si>
-  <si>
-    <t>2  2  2  3  3  3</t>
-  </si>
-  <si>
-    <t>2  2  3  3  1  1  1</t>
-  </si>
-  <si>
-    <t>2  3  1  1  1</t>
-  </si>
-  <si>
-    <t>2  3  3  3  3  1  1  1</t>
-  </si>
-  <si>
-    <t>2  2  2  3  3  1  1</t>
-  </si>
-  <si>
-    <t>2  2  3  3  3  3  1  1  1  1</t>
-  </si>
-  <si>
-    <t>2  2  2  2  3  3  3  3  1  1</t>
+    <t>1   2   3   7   8   9  10  11</t>
+  </si>
+  <si>
+    <t>1   2   5   9  10  11  12</t>
+  </si>
+  <si>
+    <t>2   3   4   5   6   8   9  10  11  12</t>
+  </si>
+  <si>
+    <t>1   2   4   5   6   7   8  10  11</t>
+  </si>
+  <si>
+    <t>1   3   4   6   7   9  10  11  12</t>
+  </si>
+  <si>
+    <t>1   2   4   5   6   8   9  10  12</t>
+  </si>
+  <si>
+    <t>1  2  3  4  5  7</t>
+  </si>
+  <si>
+    <t>1  2  3  5  6  7  9</t>
+  </si>
+  <si>
+    <t>1  2  4  5  8</t>
+  </si>
+  <si>
+    <t>2   3   4   7   8   9  10  12</t>
+  </si>
+  <si>
+    <t>2  2  2  3  3  1  1  1</t>
+  </si>
+  <si>
+    <t>2  2  3  1  1  1  1</t>
+  </si>
+  <si>
+    <t>2  2  2  3  3  3  1  1  1  1</t>
+  </si>
+  <si>
+    <t>2  2  2  3  3  3  3  1  1</t>
+  </si>
+  <si>
+    <t>2  2  2  3  3  1  1  1  1</t>
+  </si>
+  <si>
+    <t>2  2  2  3  3  3  1  1  1</t>
+  </si>
+  <si>
+    <t>2  2  2  2  3  3</t>
+  </si>
+  <si>
+    <t>2  2  2  3  3  3  1</t>
+  </si>
+  <si>
+    <t>2  2  2  3  3</t>
   </si>
 </sst>
 </file>
@@ -281,7 +278,7 @@
     <col min="6" max="6" width="2.4609375" customWidth="true"/>
     <col min="7" max="7" width="13" customWidth="true"/>
     <col min="8" max="8" width="21.3046875" customWidth="true"/>
-    <col min="9" max="9" width="13" customWidth="true"/>
+    <col min="9" max="9" width="12" customWidth="true"/>
     <col min="10" max="10" width="13" customWidth="true"/>
     <col min="11" max="11" width="13" customWidth="true"/>
     <col min="12" max="12" width="5" customWidth="true"/>
@@ -289,9 +286,9 @@
     <col min="14" max="14" width="2.4609375" customWidth="true"/>
     <col min="15" max="15" width="13" customWidth="true"/>
     <col min="16" max="16" width="13" customWidth="true"/>
-    <col min="17" max="17" width="13" customWidth="true"/>
+    <col min="17" max="17" width="12" customWidth="true"/>
     <col min="18" max="18" width="25.4609375" customWidth="true"/>
-    <col min="19" max="19" width="13" customWidth="true"/>
+    <col min="19" max="19" width="12" customWidth="true"/>
     <col min="20" max="20" width="13" customWidth="true"/>
     <col min="21" max="21" width="13" customWidth="true"/>
     <col min="22" max="22" width="13" customWidth="true"/>
@@ -480,65 +477,65 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E2" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="0">
-        <v>0.46028752647488863</v>
+        <v>1.3469295170153872</v>
       </c>
       <c r="H2" s="0"/>
       <c r="I2" s="0">
-        <v>0.50270369409999671</v>
+        <v>2.6203184181607946</v>
       </c>
       <c r="J2" s="0">
-        <v>0.44605576423502696</v>
+        <v>0.46786561385140441</v>
       </c>
       <c r="K2" s="0">
-        <v>0.44605576423502696</v>
+        <v>0.46786561385140441</v>
       </c>
       <c r="L2" s="0">
-        <v>0.92000000000000004</v>
+        <v>0.95999999999999997</v>
       </c>
       <c r="M2" s="0"/>
       <c r="N2" s="0">
         <v>1</v>
       </c>
       <c r="O2" s="0">
-        <v>0.89473684210526316</v>
+        <v>0.94736842105263164</v>
       </c>
       <c r="P2" s="0">
-        <v>0.89473684210526316</v>
+        <v>0.94736842105263164</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.76714587745814766</v>
+        <v>2.2448825283589784</v>
       </c>
       <c r="R2" s="0"/>
       <c r="S2" s="0">
-        <v>0.87070833933375713</v>
+        <v>4.5385246322630071</v>
       </c>
       <c r="T2" s="0">
-        <v>0.73488086025059529</v>
+        <v>0.77081278251934249</v>
       </c>
       <c r="U2" s="0">
-        <v>0.73488086025059529</v>
+        <v>0.77081278251934249</v>
       </c>
       <c r="V2" s="0">
-        <v>0.77777777777777779</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="W2" s="0"/>
       <c r="X2" s="0">
         <v>1</v>
       </c>
       <c r="Y2" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="AA2" s="0">
         <v>0</v>
@@ -610,65 +607,65 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E3" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="0">
-        <v>1.2415238092838863</v>
+        <v>1.1956109852148404</v>
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0">
-        <v>2.4035056850227021</v>
+        <v>2.2493754863619913</v>
       </c>
       <c r="J3" s="0">
-        <v>0.45151771882528513</v>
+        <v>0.5320763809079806</v>
       </c>
       <c r="K3" s="0">
-        <v>0.45151771882528513</v>
+        <v>0.5320763809079806</v>
       </c>
       <c r="L3" s="0">
-        <v>0.92000000000000004</v>
+        <v>0.88</v>
       </c>
       <c r="M3" s="0"/>
       <c r="N3" s="0">
         <v>1</v>
       </c>
       <c r="O3" s="0">
-        <v>0.89473684210526316</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="P3" s="0">
-        <v>0.89473684210526316</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="Q3" s="0">
-        <v>2.0692063488064774</v>
+        <v>1.9926849753580673</v>
       </c>
       <c r="R3" s="0"/>
       <c r="S3" s="0">
-        <v>4.162993962739959</v>
+        <v>3.896032627678923</v>
       </c>
       <c r="T3" s="0">
-        <v>0.74387947927936704</v>
+        <v>0.87660059542388402</v>
       </c>
       <c r="U3" s="0">
-        <v>0.74387947927936704</v>
+        <v>0.87660059542388402</v>
       </c>
       <c r="V3" s="0">
-        <v>0.77777777777777779</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="W3" s="0"/>
       <c r="X3" s="0">
         <v>1</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AA3" s="0">
         <v>0</v>
@@ -743,23 +740,23 @@
         <v>2009</v>
       </c>
       <c r="E4" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="0">
-        <v>1.133286287591053</v>
+        <v>1.0897548092514682</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0">
-        <v>2.1823470357025872</v>
+        <v>2.0748846532915435</v>
       </c>
       <c r="J4" s="0">
-        <v>0.43119257729724392</v>
+        <v>0.45062883900862572</v>
       </c>
       <c r="K4" s="0">
-        <v>0.43119257729724392</v>
+        <v>0.45062883900862572</v>
       </c>
       <c r="L4" s="0">
         <v>0.92000000000000004</v>
@@ -775,17 +772,17 @@
         <v>0.89473684210526316</v>
       </c>
       <c r="Q4" s="0">
-        <v>1.8888104793184215</v>
+        <v>1.8162580154191137</v>
       </c>
       <c r="R4" s="0"/>
       <c r="S4" s="0">
-        <v>3.7799359455842114</v>
+        <v>3.5938056393458884</v>
       </c>
       <c r="T4" s="0">
-        <v>0.7103936268625558</v>
+        <v>0.74241504183297213</v>
       </c>
       <c r="U4" s="0">
-        <v>0.7103936268625558</v>
+        <v>0.74241504183297213</v>
       </c>
       <c r="V4" s="0">
         <v>0.77777777777777779</v>
@@ -870,26 +867,26 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E5" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="0">
-        <v>1.7392435916000428</v>
+        <v>0.73497862244837198</v>
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0">
-        <v>3.4673837135891894</v>
+        <v>1.275126824171497</v>
       </c>
       <c r="J5" s="0">
-        <v>0.42844319585804608</v>
+        <v>0.44421123946493713</v>
       </c>
       <c r="K5" s="0">
-        <v>0.42844319585804608</v>
+        <v>0.44421123946493713</v>
       </c>
       <c r="L5" s="0">
         <v>0.92000000000000004</v>
@@ -905,17 +902,17 @@
         <v>0.89473684210526316</v>
       </c>
       <c r="Q5" s="0">
-        <v>2.898739319333405</v>
+        <v>1.2249643707472866</v>
       </c>
       <c r="R5" s="0"/>
       <c r="S5" s="0">
-        <v>6.0056847612733284</v>
+        <v>2.2085844455589792</v>
       </c>
       <c r="T5" s="0">
-        <v>0.70586399635624508</v>
+        <v>0.73184198919795507</v>
       </c>
       <c r="U5" s="0">
-        <v>0.70586399635624508</v>
+        <v>0.73184198919795507</v>
       </c>
       <c r="V5" s="0">
         <v>0.77777777777777779</v>
@@ -1000,65 +997,65 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E6" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" s="0">
         <v>4</v>
       </c>
       <c r="G6" s="0">
-        <v>1.285732187074704</v>
+        <v>1.390878200039408</v>
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0">
-        <v>2.5152549262117439</v>
+        <v>2.1518302657968564</v>
       </c>
       <c r="J6" s="0">
-        <v>0.42106615051012458</v>
+        <v>1.0407819233336906</v>
       </c>
       <c r="K6" s="0">
-        <v>0.42106615051012458</v>
+        <v>1.0407819233336906</v>
       </c>
       <c r="L6" s="0">
-        <v>0.95999999999999997</v>
+        <v>0.88</v>
       </c>
       <c r="M6" s="0"/>
       <c r="N6" s="0">
         <v>1</v>
       </c>
       <c r="O6" s="0">
-        <v>0.94736842105263164</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="P6" s="0">
-        <v>0.94736842105263164</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="Q6" s="0">
-        <v>2.1428869784578399</v>
+        <v>2.3181303333990133</v>
       </c>
       <c r="R6" s="0"/>
       <c r="S6" s="0">
-        <v>4.3565493261866477</v>
+        <v>3.7270793496245971</v>
       </c>
       <c r="T6" s="0">
-        <v>0.69371024817929805</v>
+        <v>1.7146975254639498</v>
       </c>
       <c r="U6" s="0">
-        <v>0.69371024817929805</v>
+        <v>1.7146975254639498</v>
       </c>
       <c r="V6" s="0">
-        <v>0.88888888888888884</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="W6" s="0"/>
       <c r="X6" s="0">
         <v>1</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.85714285714285721</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.85714285714285721</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
@@ -1133,62 +1130,62 @@
         <v>2008</v>
       </c>
       <c r="E7" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F7" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="0">
-        <v>1.1086814867724917</v>
+        <v>0.9799628654583703</v>
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0">
-        <v>2.1361741087913049</v>
+        <v>1.8594182998000772</v>
       </c>
       <c r="J7" s="0">
-        <v>0.41989516482216427</v>
+        <v>0.41444712443815418</v>
       </c>
       <c r="K7" s="0">
-        <v>0.41989516482216427</v>
+        <v>0.41444712443815418</v>
       </c>
       <c r="L7" s="0">
-        <v>0.95999999999999997</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="M7" s="0"/>
       <c r="N7" s="0">
         <v>1</v>
       </c>
       <c r="O7" s="0">
-        <v>0.94736842105263164</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="P7" s="0">
-        <v>0.94736842105263164</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="Q7" s="0">
-        <v>1.8478024779541529</v>
+        <v>1.6332714424306172</v>
       </c>
       <c r="R7" s="0"/>
       <c r="S7" s="0">
-        <v>3.6999620902397061</v>
+        <v>3.2206069677770723</v>
       </c>
       <c r="T7" s="0">
-        <v>0.69178103878731712</v>
+        <v>0.68280534353776146</v>
       </c>
       <c r="U7" s="0">
-        <v>0.69178103878731712</v>
+        <v>0.68280534353776146</v>
       </c>
       <c r="V7" s="0">
-        <v>0.88888888888888884</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="W7" s="0"/>
       <c r="X7" s="0">
         <v>1</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.85714285714285721</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Z7" s="0">
-        <v>0.85714285714285721</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA7" s="0">
         <v>0</v>
@@ -1260,65 +1257,65 @@
         <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E8" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="0">
-        <v>1.4787539469865012</v>
+        <v>1.5724732634557934</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0">
-        <v>2.9020940722139361</v>
+        <v>3.0967778969747446</v>
       </c>
       <c r="J8" s="0">
-        <v>0.46650609909299495</v>
+        <v>0.4744306309414702</v>
       </c>
       <c r="K8" s="0">
-        <v>0.46650609909299495</v>
+        <v>0.4744306309414702</v>
       </c>
       <c r="L8" s="0">
-        <v>0.95999999999999997</v>
+        <v>0.88</v>
       </c>
       <c r="M8" s="0"/>
       <c r="N8" s="0">
         <v>1</v>
       </c>
       <c r="O8" s="0">
-        <v>0.94736842105263164</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="P8" s="0">
-        <v>0.94736842105263164</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="Q8" s="0">
-        <v>2.4645899116441687</v>
+        <v>2.6207887724263226</v>
       </c>
       <c r="R8" s="0"/>
       <c r="S8" s="0">
-        <v>5.0265743814189996</v>
+        <v>5.3637766573165555</v>
       </c>
       <c r="T8" s="0">
-        <v>0.76857296979795153</v>
+        <v>0.78162870688023778</v>
       </c>
       <c r="U8" s="0">
-        <v>0.76857296979795153</v>
+        <v>0.78162870688023778</v>
       </c>
       <c r="V8" s="0">
-        <v>0.88888888888888884</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="W8" s="0"/>
       <c r="X8" s="0">
         <v>1</v>
       </c>
       <c r="Y8" s="0">
-        <v>0.85714285714285721</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z8" s="0">
-        <v>0.85714285714285721</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AA8" s="0">
         <v>0</v>
@@ -1390,65 +1387,65 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E9" s="0">
         <v>7</v>
       </c>
       <c r="F9" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="0">
-        <v>0.6737618657389447</v>
+        <v>1.0057581408891592</v>
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0">
-        <v>1.0756350613656531</v>
+        <v>1.8637417478888376</v>
       </c>
       <c r="J9" s="0">
-        <v>0.48160540638172583</v>
+        <v>0.48381902511373032</v>
       </c>
       <c r="K9" s="0">
-        <v>0.48160540638172583</v>
+        <v>0.48381902511373032</v>
       </c>
       <c r="L9" s="0">
-        <v>0.88</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="M9" s="0"/>
       <c r="N9" s="0">
         <v>1</v>
       </c>
       <c r="O9" s="0">
-        <v>0.84210526315789469</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="P9" s="0">
-        <v>0.84210526315789469</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="Q9" s="0">
-        <v>1.1229364428982411</v>
+        <v>1.6762635681485987</v>
       </c>
       <c r="R9" s="0"/>
       <c r="S9" s="0">
-        <v>1.8630545766877782</v>
+        <v>3.2280953995306918</v>
       </c>
       <c r="T9" s="0">
-        <v>0.7934492135755884</v>
+        <v>0.79709617023095669</v>
       </c>
       <c r="U9" s="0">
-        <v>0.7934492135755884</v>
+        <v>0.79709617023095669</v>
       </c>
       <c r="V9" s="0">
-        <v>0.66666666666666674</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="W9" s="0"/>
       <c r="X9" s="0">
         <v>1</v>
       </c>
       <c r="Y9" s="0">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Z9" s="0">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA9" s="0">
         <v>0</v>
@@ -1520,65 +1517,65 @@
         <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E10" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" s="0">
         <v>3</v>
       </c>
       <c r="G10" s="0">
-        <v>0.86589606571930866</v>
+        <v>1.3686450462942974</v>
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0">
-        <v>1.6109993864113395</v>
+        <v>2.6583310061070442</v>
       </c>
       <c r="J10" s="0">
-        <v>0.40862321968172693</v>
+        <v>0.48283096859576863</v>
       </c>
       <c r="K10" s="0">
-        <v>0.40862321968172693</v>
+        <v>0.48283096859576863</v>
       </c>
       <c r="L10" s="0">
-        <v>0.95999999999999997</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="M10" s="0"/>
       <c r="N10" s="0">
         <v>1</v>
       </c>
       <c r="O10" s="0">
-        <v>0.94736842105263164</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="P10" s="0">
-        <v>0.94736842105263164</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="Q10" s="0">
-        <v>1.4431601095321811</v>
+        <v>2.281075077157162</v>
       </c>
       <c r="R10" s="0"/>
       <c r="S10" s="0">
-        <v>2.7903327882267264</v>
+        <v>4.6043643659130922</v>
       </c>
       <c r="T10" s="0">
-        <v>0.67321040837363311</v>
+        <v>0.79546833828231878</v>
       </c>
       <c r="U10" s="0">
-        <v>0.67321040837363311</v>
+        <v>0.79546833828231878</v>
       </c>
       <c r="V10" s="0">
-        <v>0.88888888888888884</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="W10" s="0"/>
       <c r="X10" s="0">
         <v>1</v>
       </c>
       <c r="Y10" s="0">
-        <v>0.85714285714285721</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Z10" s="0">
-        <v>0.85714285714285721</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA10" s="0">
         <v>0</v>
@@ -1650,26 +1647,26 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E11" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="0">
         <v>3</v>
       </c>
       <c r="G11" s="0">
-        <v>0.57557590110253953</v>
+        <v>1.7212434099771172</v>
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0">
-        <v>0.81305962152902223</v>
+        <v>3.2399507402658343</v>
       </c>
       <c r="J11" s="0">
-        <v>0.47659950964507031</v>
+        <v>0.76376102330391382</v>
       </c>
       <c r="K11" s="0">
-        <v>0.47659950964507031</v>
+        <v>0.76376102330391382</v>
       </c>
       <c r="L11" s="0">
         <v>0.88</v>
@@ -1685,17 +1682,17 @@
         <v>0.84210526315789469</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.95929316850423263</v>
+        <v>2.8687390166285289</v>
       </c>
       <c r="R11" s="0"/>
       <c r="S11" s="0">
-        <v>1.4082605740709888</v>
+        <v>5.6117592961608205</v>
       </c>
       <c r="T11" s="0">
-        <v>0.78520195393874026</v>
+        <v>1.258303115517458</v>
       </c>
       <c r="U11" s="0">
-        <v>0.78520195393874026</v>
+        <v>1.258303115517458</v>
       </c>
       <c r="V11" s="0">
         <v>0.66666666666666674</v>
@@ -1766,7 +1763,7 @@
         <v>58</v>
       </c>
       <c r="AV11" s="0" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1800,8 +1797,8 @@
     <col min="17" max="17" width="12" customWidth="true"/>
     <col min="18" max="18" width="25.4609375" customWidth="true"/>
     <col min="19" max="19" width="12" customWidth="true"/>
-    <col min="20" max="20" width="13" customWidth="true"/>
-    <col min="21" max="21" width="13" customWidth="true"/>
+    <col min="20" max="20" width="12" customWidth="true"/>
+    <col min="21" max="21" width="12" customWidth="true"/>
     <col min="22" max="22" width="13" customWidth="true"/>
     <col min="23" max="23" width="24.07421875" customWidth="true"/>
     <col min="24" max="24" width="2.4609375" customWidth="true"/>
@@ -1988,78 +1985,78 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E2" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="0">
-        <v>4.1753337209285384</v>
+        <v>1.7142604015444589</v>
       </c>
       <c r="H2" s="0"/>
       <c r="I2" s="0">
-        <v>11.549267743494362</v>
+        <v>3.547108037330712</v>
       </c>
       <c r="J2" s="0">
-        <v>1.2734801243285261</v>
+        <v>1.27424294497656</v>
       </c>
       <c r="K2" s="0">
-        <v>1.2734801243285261</v>
+        <v>1.27424294497656</v>
       </c>
       <c r="L2" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="M2" s="0"/>
       <c r="N2" s="0">
-        <v>0.66666666666666674</v>
+        <v>1</v>
       </c>
       <c r="O2" s="0">
-        <v>0.59090909090909083</v>
+        <v>0.68181818181818188</v>
       </c>
       <c r="P2" s="0">
-        <v>0.59090909090909083</v>
+        <v>0.68181818181818188</v>
       </c>
       <c r="Q2" s="0">
-        <v>6.4139337346470828</v>
+        <v>2.1730468882840754</v>
       </c>
       <c r="R2" s="0"/>
       <c r="S2" s="0">
-        <v>18.914291465834491</v>
+        <v>5.9100759773621467</v>
       </c>
       <c r="T2" s="0">
-        <v>1.2498245835643895</v>
+        <v>0.97276647698309371</v>
       </c>
       <c r="U2" s="0">
-        <v>1.2498245835643895</v>
+        <v>0.97276647698309371</v>
       </c>
       <c r="V2" s="0">
-        <v>0.22222222222222221</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="W2" s="0"/>
       <c r="X2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="0">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AA2" s="0">
-        <v>2.5906919295618507</v>
+        <v>1.832820746958475</v>
       </c>
       <c r="AB2" s="0"/>
       <c r="AC2" s="0">
-        <v>5.802983985350977</v>
+        <v>1.6039720985634105</v>
       </c>
       <c r="AD2" s="0">
-        <v>1.691105059545188</v>
+        <v>1.8632202780164342</v>
       </c>
       <c r="AE2" s="0">
-        <v>1.691105059545188</v>
+        <v>1.8632202780164342</v>
       </c>
       <c r="AF2" s="0">
         <v>0.75</v>
@@ -2075,17 +2072,17 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AK2" s="0">
-        <v>1.2193697688203362</v>
+        <v>0.71538171415710783</v>
       </c>
       <c r="AL2" s="0"/>
       <c r="AM2" s="0">
-        <v>2.9549469443593481</v>
+        <v>0.49416771882161448</v>
       </c>
       <c r="AN2" s="0">
-        <v>0.67222334946111417</v>
+        <v>0.74161659725586127</v>
       </c>
       <c r="AO2" s="0">
-        <v>0.67222334946111417</v>
+        <v>0.74161659725586127</v>
       </c>
       <c r="AP2" s="0">
         <v>0.875</v>
@@ -2118,117 +2115,117 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E3" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="0">
-        <v>3.7306294197124141</v>
+        <v>4.5465189164315296</v>
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0">
-        <v>9.6479205197322067</v>
+        <v>12.219700553889933</v>
       </c>
       <c r="J3" s="0">
-        <v>1.7670312238763273</v>
+        <v>1.768507480084542</v>
       </c>
       <c r="K3" s="0">
-        <v>1.7670312238763273</v>
+        <v>1.768507480084542</v>
       </c>
       <c r="L3" s="0">
-        <v>0.67999999999999994</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="M3" s="0"/>
       <c r="N3" s="0">
         <v>1</v>
       </c>
       <c r="O3" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.59090909090909083</v>
       </c>
       <c r="P3" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.59090909090909083</v>
       </c>
       <c r="Q3" s="0">
-        <v>5.6944261095178037</v>
+        <v>7.3142473759718234</v>
       </c>
       <c r="R3" s="0"/>
       <c r="S3" s="0">
-        <v>16.566841371498995</v>
+        <v>21.021179536158222</v>
       </c>
       <c r="T3" s="0">
-        <v>1.4738625030176635</v>
+        <v>2.2246893884540135</v>
       </c>
       <c r="U3" s="0">
-        <v>1.4738625030176635</v>
+        <v>2.2246893884540135</v>
       </c>
       <c r="V3" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="W3" s="0"/>
       <c r="X3" s="0">
         <v>1</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AA3" s="0">
-        <v>2.5643156404761212</v>
+        <v>1.9188451911792221</v>
       </c>
       <c r="AB3" s="0"/>
       <c r="AC3" s="0">
-        <v>2.1629692446202813</v>
+        <v>2.3042166630874035</v>
       </c>
       <c r="AD3" s="0">
-        <v>2.6166303761776857</v>
+        <v>1.8572760588423709</v>
       </c>
       <c r="AE3" s="0">
-        <v>2.6166303761776857</v>
+        <v>1.8572760588423709</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="AG3" s="0"/>
       <c r="AH3" s="0">
         <v>1</v>
       </c>
       <c r="AI3" s="0">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AK3" s="0">
-        <v>0.66103901150463584</v>
+        <v>0.85375562976576747</v>
       </c>
       <c r="AL3" s="0"/>
       <c r="AM3" s="0">
-        <v>0.32930545641611353</v>
+        <v>0.87398018190742799</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.69563316628221972</v>
+        <v>0.85082716429257388</v>
       </c>
       <c r="AO3" s="0">
-        <v>0.69563316628221972</v>
+        <v>0.85082716429257388</v>
       </c>
       <c r="AP3" s="0">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="AQ3" s="0"/>
       <c r="AR3" s="0">
         <v>1</v>
       </c>
       <c r="AS3" s="0">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AT3" s="0">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AU3" s="0" t="s">
         <v>50</v>
@@ -2251,49 +2248,49 @@
         <v>2009</v>
       </c>
       <c r="E4" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="0">
-        <v>2.7483189347114578</v>
+        <v>1.6373243422190642</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0">
-        <v>6.6212287004771442</v>
+        <v>3.0041024268547063</v>
       </c>
       <c r="J4" s="0">
-        <v>1.6139930108594773</v>
+        <v>1.3475041046905651</v>
       </c>
       <c r="K4" s="0">
-        <v>1.6139930108594773</v>
+        <v>1.3475041046905651</v>
       </c>
       <c r="L4" s="0">
-        <v>0.71999999999999997</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="M4" s="0"/>
       <c r="N4" s="0">
         <v>1</v>
       </c>
       <c r="O4" s="0">
-        <v>0.68181818181818188</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="P4" s="0">
-        <v>0.68181818181818188</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="Q4" s="0">
-        <v>4.1018431635085513</v>
+        <v>1.7419126889245911</v>
       </c>
       <c r="R4" s="0"/>
       <c r="S4" s="0">
-        <v>11.398145487746762</v>
+        <v>3.6773404958027385</v>
       </c>
       <c r="T4" s="0">
-        <v>1.6396773875657165</v>
+        <v>1.3127026139065998</v>
       </c>
       <c r="U4" s="0">
-        <v>1.6396773875657165</v>
+        <v>1.3127026139065998</v>
       </c>
       <c r="V4" s="0">
         <v>0.44444444444444442</v>
@@ -2309,17 +2306,17 @@
         <v>0.375</v>
       </c>
       <c r="AA4" s="0">
-        <v>2.0513794305545323</v>
+        <v>2.1310507180240439</v>
       </c>
       <c r="AB4" s="0"/>
       <c r="AC4" s="0">
-        <v>1.1099959655414593</v>
+        <v>3.632192135162895</v>
       </c>
       <c r="AD4" s="0">
-        <v>2.1525124688970059</v>
+        <v>1.8180915266755944</v>
       </c>
       <c r="AE4" s="0">
-        <v>2.1525124688970059</v>
+        <v>1.8180915266755944</v>
       </c>
       <c r="AF4" s="0">
         <v>0.75</v>
@@ -2335,30 +2332,30 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AK4" s="0">
-        <v>0.68374955076069421</v>
+        <v>0.65013646603256037</v>
       </c>
       <c r="AL4" s="0"/>
       <c r="AM4" s="0">
-        <v>0.61007942819485694</v>
+        <v>0.59853265933705013</v>
       </c>
       <c r="AN4" s="0">
-        <v>0.693635420562977</v>
+        <v>0.65717773758369535</v>
       </c>
       <c r="AO4" s="0">
-        <v>0.693635420562977</v>
+        <v>0.65717773758369535</v>
       </c>
       <c r="AP4" s="0">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AQ4" s="0"/>
       <c r="AR4" s="0">
         <v>1</v>
       </c>
       <c r="AS4" s="0">
-        <v>1</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="AT4" s="0">
-        <v>1</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="AU4" s="0" t="s">
         <v>51</v>
@@ -2378,117 +2375,117 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E5" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="0">
-        <v>3.6129538212053127</v>
+        <v>2.8189878979917138</v>
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0">
-        <v>9.6149212070630075</v>
+        <v>4.9832394390883366</v>
       </c>
       <c r="J5" s="0">
-        <v>1.4923403432187536</v>
+        <v>2.3757227924430726</v>
       </c>
       <c r="K5" s="0">
-        <v>1.4923403432187536</v>
+        <v>2.3757227924430726</v>
       </c>
       <c r="L5" s="0">
-        <v>0.67999999999999994</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="M5" s="0"/>
       <c r="N5" s="0">
         <v>1</v>
       </c>
       <c r="O5" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.45454545454545459</v>
       </c>
       <c r="P5" s="0">
-        <v>0.63636363636363635</v>
+        <v>0.45454545454545459</v>
       </c>
       <c r="Q5" s="0">
-        <v>5.6144990661127876</v>
+        <v>3.6946878703755903</v>
       </c>
       <c r="R5" s="0"/>
       <c r="S5" s="0">
-        <v>16.104906696946515</v>
+        <v>6.1558091128362174</v>
       </c>
       <c r="T5" s="0">
-        <v>1.7441107387820736</v>
+        <v>3.2588817158234509</v>
       </c>
       <c r="U5" s="0">
-        <v>1.7441107387820736</v>
+        <v>3.2588817158234509</v>
       </c>
       <c r="V5" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="W5" s="0"/>
       <c r="X5" s="0">
         <v>1</v>
       </c>
       <c r="Y5" s="0">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="Z5" s="0">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="AA5" s="0">
-        <v>2.1784711444207692</v>
+        <v>2.885381199135189</v>
       </c>
       <c r="AB5" s="0"/>
       <c r="AC5" s="0">
-        <v>3.937323889010369</v>
+        <v>5.7772662507495598</v>
       </c>
       <c r="AD5" s="0">
-        <v>1.7913830574494967</v>
+        <v>2.178682169914802</v>
       </c>
       <c r="AE5" s="0">
-        <v>1.7913830574494967</v>
+        <v>2.178682169914802</v>
       </c>
       <c r="AF5" s="0">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AG5" s="0"/>
       <c r="AH5" s="0">
         <v>1</v>
       </c>
       <c r="AI5" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AJ5" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AK5" s="0">
-        <v>0.76375656846831408</v>
+        <v>1.072814975631071</v>
       </c>
       <c r="AL5" s="0"/>
       <c r="AM5" s="0">
-        <v>1.5714930256814477</v>
+        <v>1.796450599412353</v>
       </c>
       <c r="AN5" s="0">
-        <v>0.56022985553922744</v>
+        <v>0.92429285861272359</v>
       </c>
       <c r="AO5" s="0">
-        <v>0.56022985553922744</v>
+        <v>0.92429285861272359</v>
       </c>
       <c r="AP5" s="0">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AQ5" s="0"/>
       <c r="AR5" s="0">
         <v>1</v>
       </c>
       <c r="AS5" s="0">
-        <v>0.85714285714285721</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AT5" s="0">
-        <v>0.85714285714285721</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AU5" s="0" t="s">
         <v>52</v>
@@ -2508,117 +2505,117 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E6" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" s="0">
         <v>4</v>
       </c>
       <c r="G6" s="0">
-        <v>2.1810401108400459</v>
+        <v>3.6641519387269059</v>
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0">
-        <v>5.0160842360854403</v>
+        <v>4.5553725973088639</v>
       </c>
       <c r="J6" s="0">
-        <v>1.4051867546023007</v>
+        <v>3.5252077775705515</v>
       </c>
       <c r="K6" s="0">
-        <v>1.4051867546023007</v>
+        <v>3.5252077775705515</v>
       </c>
       <c r="L6" s="0">
-        <v>0.71999999999999997</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="M6" s="0"/>
       <c r="N6" s="0">
         <v>1</v>
       </c>
       <c r="O6" s="0">
-        <v>0.68181818181818188</v>
+        <v>0.45454545454545459</v>
       </c>
       <c r="P6" s="0">
-        <v>0.68181818181818188</v>
+        <v>0.45454545454545459</v>
       </c>
       <c r="Q6" s="0">
-        <v>2.8446737694172586</v>
+        <v>5.5470642759052051</v>
       </c>
       <c r="R6" s="0"/>
       <c r="S6" s="0">
-        <v>8.1584934672182676</v>
+        <v>7.5637162952318659</v>
       </c>
       <c r="T6" s="0">
-        <v>0.88519094232912443</v>
+        <v>5.2407000311797276</v>
       </c>
       <c r="U6" s="0">
-        <v>0.88519094232912443</v>
+        <v>5.2407000311797276</v>
       </c>
       <c r="V6" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="W6" s="0"/>
       <c r="X6" s="0">
         <v>1</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AA6" s="0">
-        <v>2.3062211656322056</v>
+        <v>2.2845907507682948</v>
       </c>
       <c r="AB6" s="0"/>
       <c r="AC6" s="0">
-        <v>2.971263995418711</v>
+        <v>1.5341337496246599</v>
       </c>
       <c r="AD6" s="0">
-        <v>2.1948263448394201</v>
+        <v>2.372499370050523</v>
       </c>
       <c r="AE6" s="0">
-        <v>2.1948263448394201</v>
+        <v>2.372499370050523</v>
       </c>
       <c r="AF6" s="0">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AG6" s="0"/>
       <c r="AH6" s="0">
         <v>1</v>
       </c>
       <c r="AI6" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AJ6" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AK6" s="0">
-        <v>0.66564169407740692</v>
+        <v>1.4562837049628012</v>
       </c>
       <c r="AL6" s="0"/>
       <c r="AM6" s="0">
-        <v>0.30639485211057727</v>
+        <v>1.6403926189921803</v>
       </c>
       <c r="AN6" s="0">
-        <v>0.70211447110588332</v>
+        <v>1.4280461122145403</v>
       </c>
       <c r="AO6" s="0">
-        <v>0.70211447110588332</v>
+        <v>1.4280461122145403</v>
       </c>
       <c r="AP6" s="0">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AQ6" s="0"/>
       <c r="AR6" s="0">
         <v>1</v>
       </c>
       <c r="AS6" s="0">
-        <v>0.85714285714285721</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AT6" s="0">
-        <v>0.85714285714285721</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AU6" s="0" t="s">
         <v>53</v>
@@ -2641,114 +2638,114 @@
         <v>2008</v>
       </c>
       <c r="E7" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F7" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="0">
-        <v>1.3605684744635205</v>
+        <v>2.2985690842542343</v>
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0">
-        <v>1.7923511043624183</v>
+        <v>5.2552737849679465</v>
       </c>
       <c r="J7" s="0">
-        <v>1.2905442280236283</v>
+        <v>1.495930665206594</v>
       </c>
       <c r="K7" s="0">
-        <v>1.2905442280236283</v>
+        <v>1.495930665206594</v>
       </c>
       <c r="L7" s="0">
-        <v>0.76000000000000001</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="M7" s="0"/>
       <c r="N7" s="0">
-        <v>1</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="O7" s="0">
-        <v>0.72727272727272729</v>
+        <v>0.45454545454545459</v>
       </c>
       <c r="P7" s="0">
-        <v>0.72727272727272729</v>
+        <v>0.45454545454545459</v>
       </c>
       <c r="Q7" s="0">
-        <v>1.4766766897532886</v>
+        <v>3.0761276272473057</v>
       </c>
       <c r="R7" s="0"/>
       <c r="S7" s="0">
-        <v>1.0199450701449306</v>
+        <v>7.8644007109389769</v>
       </c>
       <c r="T7" s="0">
-        <v>1.5241751239782793</v>
+        <v>1.7071266820966216</v>
       </c>
       <c r="U7" s="0">
-        <v>1.5241751239782793</v>
+        <v>1.7071266820966216</v>
       </c>
       <c r="V7" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.11111111111111116</v>
       </c>
       <c r="W7" s="0"/>
       <c r="X7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="Z7" s="0">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="AA7" s="0">
-        <v>1.6164422152018714</v>
+        <v>2.335191533702615</v>
       </c>
       <c r="AB7" s="0"/>
       <c r="AC7" s="0">
-        <v>2.8999518663995825</v>
+        <v>4.5782115906494081</v>
       </c>
       <c r="AD7" s="0">
-        <v>1.3359513813469326</v>
+        <v>1.7994020683015144</v>
       </c>
       <c r="AE7" s="0">
-        <v>1.3359513813469326</v>
+        <v>1.7994020683015144</v>
       </c>
       <c r="AF7" s="0">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="AG7" s="0"/>
       <c r="AH7" s="0">
         <v>1</v>
       </c>
       <c r="AI7" s="0">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AJ7" s="0">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AK7" s="0">
-        <v>0.84782180080481639</v>
+        <v>0.64201725761418615</v>
       </c>
       <c r="AL7" s="0"/>
       <c r="AM7" s="0">
-        <v>0.43308044331298823</v>
+        <v>0.21186730266822962</v>
       </c>
       <c r="AN7" s="0">
-        <v>0.89145593409074353</v>
+        <v>0.68165780257248176</v>
       </c>
       <c r="AO7" s="0">
-        <v>0.89145593409074353</v>
+        <v>0.68165780257248176</v>
       </c>
       <c r="AP7" s="0">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7" s="0"/>
       <c r="AR7" s="0">
         <v>1</v>
       </c>
       <c r="AS7" s="0">
-        <v>0.85714285714285721</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AT7" s="0">
-        <v>0.85714285714285721</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AU7" s="0" t="s">
         <v>54</v>
@@ -2768,104 +2765,104 @@
         <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E8" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="0">
-        <v>1.9041114205022978</v>
+        <v>2.8208214201280279</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0">
-        <v>3.7216967813487383</v>
+        <v>7.0652245931894333</v>
       </c>
       <c r="J8" s="0">
-        <v>1.4937434175629372</v>
+        <v>1.4950469960643267</v>
       </c>
       <c r="K8" s="0">
-        <v>1.4937434175629372</v>
+        <v>1.4950469960643267</v>
       </c>
       <c r="L8" s="0">
-        <v>0.64000000000000001</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="M8" s="0"/>
       <c r="N8" s="0">
         <v>1</v>
       </c>
       <c r="O8" s="0">
-        <v>0.59090909090909083</v>
+        <v>0.68181818181818188</v>
       </c>
       <c r="P8" s="0">
-        <v>0.59090909090909083</v>
+        <v>0.68181818181818188</v>
       </c>
       <c r="Q8" s="0">
-        <v>2.328748553165144</v>
+        <v>4.2500201266349604</v>
       </c>
       <c r="R8" s="0"/>
       <c r="S8" s="0">
-        <v>6.1210989539403524</v>
+        <v>12.17886318217373</v>
       </c>
       <c r="T8" s="0">
-        <v>1.1905763315979094</v>
+        <v>1.3341350794200588</v>
       </c>
       <c r="U8" s="0">
-        <v>1.1905763315979094</v>
+        <v>1.3341350794200588</v>
       </c>
       <c r="V8" s="0">
-        <v>0.33333333333333337</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="W8" s="0"/>
       <c r="X8" s="0">
         <v>1</v>
       </c>
       <c r="Y8" s="0">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="Z8" s="0">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AA8" s="0">
-        <v>2.1338353300846244</v>
+        <v>2.0372509781847543</v>
       </c>
       <c r="AB8" s="0"/>
       <c r="AC8" s="0">
-        <v>1.9718605351137542</v>
+        <v>1.1292178331054621</v>
       </c>
       <c r="AD8" s="0">
-        <v>2.1559814390070295</v>
+        <v>2.1356832118723745</v>
       </c>
       <c r="AE8" s="0">
-        <v>2.1559814390070295</v>
+        <v>2.1356832118723745</v>
       </c>
       <c r="AF8" s="0">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AG8" s="0"/>
       <c r="AH8" s="0">
         <v>1</v>
       </c>
       <c r="AI8" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="AJ8" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="AK8" s="0">
-        <v>0.82214303804328415</v>
+        <v>0.62835748485531207</v>
       </c>
       <c r="AL8" s="0"/>
       <c r="AM8" s="0">
-        <v>0.44384053784652511</v>
+        <v>0.39032593036604779</v>
       </c>
       <c r="AN8" s="0">
-        <v>0.86274967210230424</v>
+        <v>0.65534186261538652</v>
       </c>
       <c r="AO8" s="0">
-        <v>0.86274967210230424</v>
+        <v>0.65534186261538652</v>
       </c>
       <c r="AP8" s="0">
         <v>0.875</v>
@@ -2898,59 +2895,59 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E9" s="0">
         <v>7</v>
       </c>
       <c r="F9" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="0">
-        <v>2.6029436638807875</v>
+        <v>2.4390297404660628</v>
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0">
-        <v>6.0055523496195828</v>
+        <v>5.6859660114890449</v>
       </c>
       <c r="J9" s="0">
-        <v>1.6676455348970376</v>
+        <v>1.5334308447003122</v>
       </c>
       <c r="K9" s="0">
-        <v>1.6676455348970376</v>
+        <v>1.5334308447003122</v>
       </c>
       <c r="L9" s="0">
         <v>0.52000000000000002</v>
       </c>
       <c r="M9" s="0"/>
       <c r="N9" s="0">
-        <v>0.66666666666666674</v>
+        <v>1</v>
       </c>
       <c r="O9" s="0">
-        <v>0.5</v>
+        <v>0.45454545454545459</v>
       </c>
       <c r="P9" s="0">
-        <v>0.5</v>
+        <v>0.45454545454545459</v>
       </c>
       <c r="Q9" s="0">
-        <v>2.7625967596624932</v>
+        <v>3.4942067717080811</v>
       </c>
       <c r="R9" s="0"/>
       <c r="S9" s="0">
-        <v>5.9962863160216697</v>
+        <v>9.3007505113285447</v>
       </c>
       <c r="T9" s="0">
-        <v>2.0227462187818643</v>
+        <v>1.7095821345096762</v>
       </c>
       <c r="U9" s="0">
-        <v>2.0227462187818643</v>
+        <v>1.7095821345096762</v>
       </c>
       <c r="V9" s="0">
-        <v>0.11111111111111116</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="W9" s="0"/>
       <c r="X9" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="0">
         <v>0.125</v>
@@ -2959,43 +2956,43 @@
         <v>0.125</v>
       </c>
       <c r="AA9" s="0">
-        <v>3.4508456816568409</v>
+        <v>2.0405913532706164</v>
       </c>
       <c r="AB9" s="0"/>
       <c r="AC9" s="0">
-        <v>8.3653941808544499</v>
+        <v>2.8029870237603873</v>
       </c>
       <c r="AD9" s="0">
-        <v>1.9006340125564056</v>
+        <v>1.906956000427807</v>
       </c>
       <c r="AE9" s="0">
-        <v>1.9006340125564056</v>
+        <v>1.906956000427807</v>
       </c>
       <c r="AF9" s="0">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AG9" s="0"/>
       <c r="AH9" s="0">
         <v>1</v>
       </c>
       <c r="AI9" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AJ9" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AK9" s="0">
-        <v>0.82376709967621953</v>
+        <v>0.8309797404683571</v>
       </c>
       <c r="AL9" s="0"/>
       <c r="AM9" s="0">
-        <v>1.5048945767998703</v>
+        <v>1.6217065462279523</v>
       </c>
       <c r="AN9" s="0">
-        <v>0.67231265991672407</v>
+        <v>0.64301594186772604</v>
       </c>
       <c r="AO9" s="0">
-        <v>0.67231265991672407</v>
+        <v>0.64301594186772604</v>
       </c>
       <c r="AP9" s="0">
         <v>0.75</v>
@@ -3028,26 +3025,26 @@
         <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E10" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" s="0">
         <v>3</v>
       </c>
       <c r="G10" s="0">
-        <v>1.6011544055539568</v>
+        <v>1.4775330491765941</v>
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0">
-        <v>1.5414956683403489</v>
+        <v>2.7367752429602445</v>
       </c>
       <c r="J10" s="0">
-        <v>1.6091183225899739</v>
+        <v>1.2080747567511701</v>
       </c>
       <c r="K10" s="0">
-        <v>1.6091183225899739</v>
+        <v>1.2080747567511701</v>
       </c>
       <c r="L10" s="0">
         <v>0.59999999999999998</v>
@@ -3063,17 +3060,17 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="Q10" s="0">
-        <v>1.7567547067345093</v>
+        <v>1.6693404178818692</v>
       </c>
       <c r="R10" s="0"/>
       <c r="S10" s="0">
-        <v>1.9218740356054496</v>
+        <v>3.9819609638348217</v>
       </c>
       <c r="T10" s="0">
-        <v>1.735010233686328</v>
+        <v>1.0737937278326422</v>
       </c>
       <c r="U10" s="0">
-        <v>1.735010233686328</v>
+        <v>1.0737937278326422</v>
       </c>
       <c r="V10" s="0">
         <v>0.33333333333333337</v>
@@ -3089,17 +3086,17 @@
         <v>0.25</v>
       </c>
       <c r="AA10" s="0">
-        <v>2.0276154580631554</v>
+        <v>1.6952284035135288</v>
       </c>
       <c r="AB10" s="0"/>
       <c r="AC10" s="0">
-        <v>1.7556123037970779</v>
+        <v>2.0753176675215381</v>
       </c>
       <c r="AD10" s="0">
-        <v>2.0635482965364567</v>
+        <v>1.633727171640933</v>
       </c>
       <c r="AE10" s="0">
-        <v>2.0635482965364567</v>
+        <v>1.633727171640933</v>
       </c>
       <c r="AF10" s="0">
         <v>0.625</v>
@@ -3115,17 +3112,17 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="AK10" s="0">
-        <v>0.65449468081329576</v>
+        <v>0.90186793570544133</v>
       </c>
       <c r="AL10" s="0"/>
       <c r="AM10" s="0">
-        <v>0.59401373431774796</v>
+        <v>1.5188349656262665</v>
       </c>
       <c r="AN10" s="0">
-        <v>0.66268436584471313</v>
+        <v>0.77460280465168629</v>
       </c>
       <c r="AO10" s="0">
-        <v>0.66268436584471313</v>
+        <v>0.77460280465168629</v>
       </c>
       <c r="AP10" s="0">
         <v>0.875</v>
@@ -3158,104 +3155,104 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E11" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="0">
         <v>3</v>
       </c>
       <c r="G11" s="0">
-        <v>2.9106046653616997</v>
+        <v>6.8305435100550094</v>
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0">
-        <v>6.0569961460127981</v>
+        <v>11.315286590197033</v>
       </c>
       <c r="J11" s="0">
-        <v>2.1503581204089386</v>
+        <v>5.9631481321605868</v>
       </c>
       <c r="K11" s="0">
-        <v>2.1503581204089386</v>
+        <v>5.9631481321605868</v>
       </c>
       <c r="L11" s="0">
-        <v>0.56000000000000005</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="M11" s="0"/>
       <c r="N11" s="0">
         <v>1</v>
       </c>
       <c r="O11" s="0">
-        <v>0.5</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="P11" s="0">
-        <v>0.5</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="Q11" s="0">
-        <v>4.0092756333574986</v>
+        <v>9.2894259395186474</v>
       </c>
       <c r="R11" s="0"/>
       <c r="S11" s="0">
-        <v>8.9547513060762434</v>
+        <v>8.6027345670530728</v>
       </c>
       <c r="T11" s="0">
-        <v>2.8390370062847308</v>
+        <v>9.3717252049785866</v>
       </c>
       <c r="U11" s="0">
-        <v>2.8390370062847308</v>
+        <v>9.3717252049785866</v>
       </c>
       <c r="V11" s="0">
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="W11" s="0"/>
       <c r="X11" s="0">
         <v>1</v>
       </c>
       <c r="Y11" s="0">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="Z11" s="0">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="AA11" s="0">
-        <v>2.5433681412422775</v>
+        <v>5.1016572250885037</v>
       </c>
       <c r="AB11" s="0"/>
       <c r="AC11" s="0">
-        <v>4.4387292959866995</v>
+        <v>12.565497024926751</v>
       </c>
       <c r="AD11" s="0">
-        <v>2.1396746832851217</v>
+        <v>2.6812453411198631</v>
       </c>
       <c r="AE11" s="0">
-        <v>2.1396746832851217</v>
+        <v>2.6812453411198631</v>
       </c>
       <c r="AF11" s="0">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AG11" s="0"/>
       <c r="AH11" s="0">
         <v>1</v>
       </c>
       <c r="AI11" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AJ11" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AK11" s="0">
-        <v>1.3861861345719033</v>
+        <v>4.763821417180039</v>
       </c>
       <c r="AL11" s="0"/>
       <c r="AM11" s="0">
-        <v>3.1893131269470709</v>
+        <v>12.337275807092324</v>
       </c>
       <c r="AN11" s="0">
-        <v>0.86192291466052451</v>
+        <v>2.047422826663535</v>
       </c>
       <c r="AO11" s="0">
-        <v>0.86192291466052451</v>
+        <v>2.047422826663535</v>
       </c>
       <c r="AP11" s="0">
         <v>0.75</v>
@@ -3274,7 +3271,7 @@
         <v>58</v>
       </c>
       <c r="AV11" s="0" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3305,11 +3302,11 @@
     <col min="14" max="14" width="15.53515625" customWidth="true"/>
     <col min="15" max="15" width="5" customWidth="true"/>
     <col min="16" max="16" width="5" customWidth="true"/>
-    <col min="17" max="17" width="13" customWidth="true"/>
+    <col min="17" max="17" width="12" customWidth="true"/>
     <col min="18" max="18" width="25.4609375" customWidth="true"/>
     <col min="19" max="19" width="21.07421875" customWidth="true"/>
-    <col min="20" max="20" width="13" customWidth="true"/>
-    <col min="21" max="21" width="13" customWidth="true"/>
+    <col min="20" max="20" width="12" customWidth="true"/>
+    <col min="21" max="21" width="12" customWidth="true"/>
     <col min="22" max="22" width="13" customWidth="true"/>
     <col min="23" max="23" width="24.07421875" customWidth="true"/>
     <col min="24" max="24" width="19.69140625" customWidth="true"/>
@@ -3325,11 +3322,11 @@
     <col min="34" max="34" width="19.69140625" customWidth="true"/>
     <col min="35" max="35" width="6" customWidth="true"/>
     <col min="36" max="36" width="6" customWidth="true"/>
-    <col min="37" max="37" width="13" customWidth="true"/>
+    <col min="37" max="37" width="12" customWidth="true"/>
     <col min="38" max="38" width="25.4609375" customWidth="true"/>
     <col min="39" max="39" width="21.07421875" customWidth="true"/>
-    <col min="40" max="40" width="13" customWidth="true"/>
-    <col min="41" max="41" width="13" customWidth="true"/>
+    <col min="40" max="40" width="12" customWidth="true"/>
+    <col min="41" max="41" width="12" customWidth="true"/>
     <col min="42" max="42" width="6" customWidth="true"/>
     <col min="43" max="43" width="24.07421875" customWidth="true"/>
     <col min="44" max="44" width="19.69140625" customWidth="true"/>
@@ -3496,46 +3493,46 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E2" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="0">
-        <v>3.2106312628568059</v>
+        <v>1.568571940966961</v>
       </c>
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0">
-        <v>3.2106312628568059</v>
+        <v>1.568571940966961</v>
       </c>
       <c r="K2" s="0">
-        <v>3.2106312628568059</v>
+        <v>1.568571940966961</v>
       </c>
       <c r="L2" s="0">
-        <v>0.43999999999999995</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0">
-        <v>0.43999999999999995</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="P2" s="0">
-        <v>0.43999999999999995</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="Q2" s="0">
-        <v>2.7833272307081742</v>
+        <v>1.7044963710910459</v>
       </c>
       <c r="R2" s="0"/>
       <c r="S2" s="0"/>
       <c r="T2" s="0">
-        <v>2.7833272307081742</v>
+        <v>1.7044963710910459</v>
       </c>
       <c r="U2" s="0">
-        <v>2.7833272307081742</v>
+        <v>1.7044963710910459</v>
       </c>
       <c r="V2" s="0">
         <v>0.44444444444444442</v>
@@ -3549,37 +3546,37 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="AA2" s="0">
-        <v>3.9151228316131479</v>
+        <v>1.9290806422654414</v>
       </c>
       <c r="AB2" s="0"/>
       <c r="AC2" s="0"/>
       <c r="AD2" s="0">
-        <v>3.9151228316131479</v>
+        <v>1.9290806422654414</v>
       </c>
       <c r="AE2" s="0">
-        <v>3.9151228316131479</v>
+        <v>1.9290806422654414</v>
       </c>
       <c r="AF2" s="0">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="AG2" s="0"/>
       <c r="AH2" s="0"/>
       <c r="AI2" s="0">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="AJ2" s="0">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="AK2" s="0">
-        <v>2.8582367619538194</v>
+        <v>0.83605176598496212</v>
       </c>
       <c r="AL2" s="0"/>
       <c r="AM2" s="0"/>
       <c r="AN2" s="0">
-        <v>2.8582367619538194</v>
+        <v>0.83605176598496212</v>
       </c>
       <c r="AO2" s="0">
-        <v>2.8582367619538194</v>
+        <v>0.83605176598496212</v>
       </c>
       <c r="AP2" s="0">
         <v>0.5</v>
@@ -3610,90 +3607,90 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E3" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="0">
-        <v>2.4022701076711095</v>
+        <v>4.3103508851512134</v>
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0">
-        <v>2.4022701076711095</v>
+        <v>4.3103508851512134</v>
       </c>
       <c r="K3" s="0">
-        <v>2.4022701076711095</v>
+        <v>4.3103508851512134</v>
       </c>
       <c r="L3" s="0">
-        <v>0.28000000000000003</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0">
-        <v>0.28000000000000003</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="P3" s="0">
-        <v>0.28000000000000003</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="Q3" s="0">
-        <v>2.8475426632729808</v>
+        <v>5.751258932424129</v>
       </c>
       <c r="R3" s="0"/>
       <c r="S3" s="0"/>
       <c r="T3" s="0">
-        <v>2.8475426632729808</v>
+        <v>5.751258932424129</v>
       </c>
       <c r="U3" s="0">
-        <v>2.8475426632729808</v>
+        <v>5.751258932424129</v>
       </c>
       <c r="V3" s="0">
-        <v>0.33333333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0">
-        <v>0.33333333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.33333333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="AA3" s="0">
-        <v>2.7238576700216988</v>
+        <v>3.2526521757968667</v>
       </c>
       <c r="AB3" s="0"/>
       <c r="AC3" s="0"/>
       <c r="AD3" s="0">
-        <v>2.7238576700216988</v>
+        <v>3.2526521757968667</v>
       </c>
       <c r="AE3" s="0">
-        <v>2.7238576700216988</v>
+        <v>3.2526521757968667</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="AG3" s="0"/>
       <c r="AH3" s="0"/>
       <c r="AI3" s="0">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="AK3" s="0">
-        <v>1.2217223462456479</v>
+        <v>3.2044370731119147</v>
       </c>
       <c r="AL3" s="0"/>
       <c r="AM3" s="0"/>
       <c r="AN3" s="0">
-        <v>1.2217223462456479</v>
+        <v>3.2044370731119147</v>
       </c>
       <c r="AO3" s="0">
-        <v>1.2217223462456479</v>
+        <v>3.2044370731119147</v>
       </c>
       <c r="AP3" s="0">
         <v>0.375</v>
@@ -3727,98 +3724,98 @@
         <v>2009</v>
       </c>
       <c r="E4" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="0">
-        <v>2.354336297397281</v>
+        <v>2.3173394945759158</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0">
-        <v>2.354336297397281</v>
+        <v>2.3173394945759158</v>
       </c>
       <c r="K4" s="0">
-        <v>2.354336297397281</v>
+        <v>2.3173394945759158</v>
       </c>
       <c r="L4" s="0">
-        <v>0.35999999999999999</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0">
-        <v>0.35999999999999999</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="P4" s="0">
-        <v>0.35999999999999999</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="Q4" s="0">
-        <v>2.9623575384631415</v>
+        <v>2.5679175014036568</v>
       </c>
       <c r="R4" s="0"/>
       <c r="S4" s="0"/>
       <c r="T4" s="0">
-        <v>2.9623575384631415</v>
+        <v>2.5679175014036568</v>
       </c>
       <c r="U4" s="0">
-        <v>2.9623575384631415</v>
+        <v>2.5679175014036568</v>
       </c>
       <c r="V4" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="W4" s="0"/>
       <c r="X4" s="0"/>
       <c r="Y4" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="Z4" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="AA4" s="0">
-        <v>1.8662649791925379</v>
+        <v>2.3458935940920838</v>
       </c>
       <c r="AB4" s="0"/>
       <c r="AC4" s="0"/>
       <c r="AD4" s="0">
-        <v>1.8662649791925379</v>
+        <v>2.3458935940920838</v>
       </c>
       <c r="AE4" s="0">
-        <v>1.8662649791925379</v>
+        <v>2.3458935940920838</v>
       </c>
       <c r="AF4" s="0">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AG4" s="0"/>
       <c r="AH4" s="0"/>
       <c r="AI4" s="0">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AJ4" s="0">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AK4" s="0">
-        <v>1.9915090251920033</v>
+        <v>1.9646253346210512</v>
       </c>
       <c r="AL4" s="0"/>
       <c r="AM4" s="0"/>
       <c r="AN4" s="0">
-        <v>1.9915090251920033</v>
+        <v>1.9646253346210512</v>
       </c>
       <c r="AO4" s="0">
-        <v>1.9915090251920033</v>
+        <v>1.9646253346210512</v>
       </c>
       <c r="AP4" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4" s="0"/>
       <c r="AR4" s="0"/>
       <c r="AS4" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AT4" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" s="0" t="s">
         <v>51</v>
@@ -3838,101 +3835,101 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E5" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="0">
-        <v>3.4268503433164175</v>
+        <v>4.6965531074997218</v>
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0">
-        <v>3.4268503433164175</v>
+        <v>4.6965531074997218</v>
       </c>
       <c r="K5" s="0">
-        <v>3.4268503433164175</v>
+        <v>4.6965531074997218</v>
       </c>
       <c r="L5" s="0">
-        <v>0.52000000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
       <c r="O5" s="0">
-        <v>0.52000000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="P5" s="0">
-        <v>0.52000000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q5" s="0">
-        <v>4.4048281445342141</v>
+        <v>5.0012204369085938</v>
       </c>
       <c r="R5" s="0"/>
       <c r="S5" s="0"/>
       <c r="T5" s="0">
-        <v>4.4048281445342141</v>
+        <v>5.0012204369085938</v>
       </c>
       <c r="U5" s="0">
-        <v>4.4048281445342141</v>
+        <v>5.0012204369085938</v>
       </c>
       <c r="V5" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="W5" s="0"/>
       <c r="X5" s="0"/>
       <c r="Y5" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="Z5" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AA5" s="0">
-        <v>2.0153240370240431</v>
+        <v>4.1239428802372817</v>
       </c>
       <c r="AB5" s="0"/>
       <c r="AC5" s="0"/>
       <c r="AD5" s="0">
-        <v>2.0153240370240431</v>
+        <v>4.1239428802372817</v>
       </c>
       <c r="AE5" s="0">
-        <v>2.0153240370240431</v>
+        <v>4.1239428802372817</v>
       </c>
       <c r="AF5" s="0">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG5" s="0"/>
       <c r="AH5" s="0"/>
       <c r="AI5" s="0">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AJ5" s="0">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AK5" s="0">
-        <v>3.2876232913689791</v>
+        <v>4.8769250753738831</v>
       </c>
       <c r="AL5" s="0"/>
       <c r="AM5" s="0"/>
       <c r="AN5" s="0">
-        <v>3.2876232913689791</v>
+        <v>4.8769250753738831</v>
       </c>
       <c r="AO5" s="0">
-        <v>3.2876232913689791</v>
+        <v>4.8769250753738831</v>
       </c>
       <c r="AP5" s="0">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="AQ5" s="0"/>
       <c r="AR5" s="0"/>
       <c r="AS5" s="0">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="AT5" s="0">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="AU5" s="0" t="s">
         <v>52</v>
@@ -3952,101 +3949,101 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E6" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" s="0">
         <v>4</v>
       </c>
       <c r="G6" s="0">
-        <v>1.6682931128042604</v>
+        <v>6.338491090719864</v>
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0">
-        <v>1.6682931128042604</v>
+        <v>6.338491090719864</v>
       </c>
       <c r="K6" s="0">
-        <v>1.6682931128042604</v>
+        <v>6.338491090719864</v>
       </c>
       <c r="L6" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="P6" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q6" s="0">
-        <v>1.5723155486901321</v>
+        <v>5.8597213251684313</v>
       </c>
       <c r="R6" s="0"/>
       <c r="S6" s="0"/>
       <c r="T6" s="0">
-        <v>1.5723155486901321</v>
+        <v>5.8597213251684313</v>
       </c>
       <c r="U6" s="0">
-        <v>1.5723155486901321</v>
+        <v>5.8597213251684313</v>
       </c>
       <c r="V6" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="W6" s="0"/>
       <c r="X6" s="0"/>
       <c r="Y6" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AA6" s="0">
-        <v>2.2477318028261197</v>
+        <v>7.0205406390285852</v>
       </c>
       <c r="AB6" s="0"/>
       <c r="AC6" s="0"/>
       <c r="AD6" s="0">
-        <v>2.2477318028261197</v>
+        <v>7.0205406390285852</v>
       </c>
       <c r="AE6" s="0">
-        <v>2.2477318028261197</v>
+        <v>7.0205406390285852</v>
       </c>
       <c r="AF6" s="0">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="AG6" s="0"/>
       <c r="AH6" s="0"/>
       <c r="AI6" s="0">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="AJ6" s="0">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="AK6" s="0">
-        <v>0.92952111557449457</v>
+        <v>6.1347453052944587</v>
       </c>
       <c r="AL6" s="0"/>
       <c r="AM6" s="0"/>
       <c r="AN6" s="0">
-        <v>0.92952111557449457</v>
+        <v>6.1347453052944587</v>
       </c>
       <c r="AO6" s="0">
-        <v>0.92952111557449457</v>
+        <v>6.1347453052944587</v>
       </c>
       <c r="AP6" s="0">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AQ6" s="0"/>
       <c r="AR6" s="0"/>
       <c r="AS6" s="0">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AT6" s="0">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AU6" s="0" t="s">
         <v>53</v>
@@ -4069,87 +4066,87 @@
         <v>2008</v>
       </c>
       <c r="E7" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F7" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="0">
-        <v>1.4538696105813718</v>
+        <v>2.181741831597364</v>
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0">
-        <v>1.4538696105813718</v>
+        <v>2.181741831597364</v>
       </c>
       <c r="K7" s="0">
-        <v>1.4538696105813718</v>
+        <v>2.181741831597364</v>
       </c>
       <c r="L7" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
       <c r="O7" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="P7" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.90010693575131817</v>
+        <v>2.6321773233341026</v>
       </c>
       <c r="R7" s="0"/>
       <c r="S7" s="0"/>
       <c r="T7" s="0">
-        <v>0.90010693575131817</v>
+        <v>2.6321773233341026</v>
       </c>
       <c r="U7" s="0">
-        <v>0.90010693575131817</v>
+        <v>2.6321773233341026</v>
       </c>
       <c r="V7" s="0">
-        <v>0.66666666666666674</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="W7" s="0"/>
       <c r="X7" s="0"/>
       <c r="Y7" s="0">
-        <v>0.66666666666666674</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="Z7" s="0">
-        <v>0.66666666666666674</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AA7" s="0">
-        <v>1.8670719668120024</v>
+        <v>1.4422228086371065</v>
       </c>
       <c r="AB7" s="0"/>
       <c r="AC7" s="0"/>
       <c r="AD7" s="0">
-        <v>1.8670719668120024</v>
+        <v>1.4422228086371065</v>
       </c>
       <c r="AE7" s="0">
-        <v>1.8670719668120024</v>
+        <v>1.4422228086371065</v>
       </c>
       <c r="AF7" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AG7" s="0"/>
       <c r="AH7" s="0"/>
       <c r="AI7" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AJ7" s="0">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AK7" s="0">
-        <v>1.4859351776814731</v>
+        <v>2.2361983728599566</v>
       </c>
       <c r="AL7" s="0"/>
       <c r="AM7" s="0"/>
       <c r="AN7" s="0">
-        <v>1.4859351776814731</v>
+        <v>2.2361983728599566</v>
       </c>
       <c r="AO7" s="0">
-        <v>1.4859351776814731</v>
+        <v>2.2361983728599566</v>
       </c>
       <c r="AP7" s="0">
         <v>0.375</v>
@@ -4180,90 +4177,90 @@
         <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E8" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="0">
-        <v>1.3533040144431439</v>
+        <v>1.5043044088625113</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0">
-        <v>1.3533040144431439</v>
+        <v>1.5043044088625113</v>
       </c>
       <c r="K8" s="0">
-        <v>1.3533040144431439</v>
+        <v>1.5043044088625113</v>
       </c>
       <c r="L8" s="0">
-        <v>0.40000000000000002</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
       <c r="O8" s="0">
-        <v>0.40000000000000002</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="P8" s="0">
-        <v>0.40000000000000002</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="Q8" s="0">
-        <v>1.172855576696564</v>
+        <v>1.6215060986967036</v>
       </c>
       <c r="R8" s="0"/>
       <c r="S8" s="0"/>
       <c r="T8" s="0">
-        <v>1.172855576696564</v>
+        <v>1.6215060986967036</v>
       </c>
       <c r="U8" s="0">
-        <v>1.172855576696564</v>
+        <v>1.6215060986967036</v>
       </c>
       <c r="V8" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="W8" s="0"/>
       <c r="X8" s="0"/>
       <c r="Y8" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="Z8" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="AA8" s="0">
-        <v>1.8552988565987114</v>
+        <v>1.5029083663064742</v>
       </c>
       <c r="AB8" s="0"/>
       <c r="AC8" s="0"/>
       <c r="AD8" s="0">
-        <v>1.8552988565987114</v>
+        <v>1.5029083663064742</v>
       </c>
       <c r="AE8" s="0">
-        <v>1.8552988565987114</v>
+        <v>1.5029083663064742</v>
       </c>
       <c r="AF8" s="0">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AG8" s="0"/>
       <c r="AH8" s="0"/>
       <c r="AI8" s="0">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AJ8" s="0">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AK8" s="0">
-        <v>0.85647615810601163</v>
+        <v>1.3619786686092199</v>
       </c>
       <c r="AL8" s="0"/>
       <c r="AM8" s="0"/>
       <c r="AN8" s="0">
-        <v>0.85647615810601163</v>
+        <v>1.3619786686092199</v>
       </c>
       <c r="AO8" s="0">
-        <v>0.85647615810601163</v>
+        <v>1.3619786686092199</v>
       </c>
       <c r="AP8" s="0">
         <v>0.5</v>
@@ -4294,68 +4291,68 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E9" s="0">
         <v>7</v>
       </c>
       <c r="F9" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="0">
-        <v>2.3632778343780965</v>
+        <v>1.5278587106351234</v>
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0">
-        <v>2.3632778343780965</v>
+        <v>1.5278587106351234</v>
       </c>
       <c r="K9" s="0">
-        <v>2.3632778343780965</v>
+        <v>1.5278587106351234</v>
       </c>
       <c r="L9" s="0">
-        <v>0.40000000000000002</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
       <c r="O9" s="0">
-        <v>0.40000000000000002</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="P9" s="0">
-        <v>0.40000000000000002</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="Q9" s="0">
-        <v>2.9413312770092741</v>
+        <v>1.3377179078894208</v>
       </c>
       <c r="R9" s="0"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0">
-        <v>2.9413312770092741</v>
+        <v>1.3377179078894208</v>
       </c>
       <c r="U9" s="0">
-        <v>2.9413312770092741</v>
+        <v>1.3377179078894208</v>
       </c>
       <c r="V9" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="W9" s="0"/>
       <c r="X9" s="0"/>
       <c r="Y9" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="Z9" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="AA9" s="0">
-        <v>1.8369030052741635</v>
+        <v>1.6875022958904202</v>
       </c>
       <c r="AB9" s="0"/>
       <c r="AC9" s="0"/>
       <c r="AD9" s="0">
-        <v>1.8369030052741635</v>
+        <v>1.6875022958904202</v>
       </c>
       <c r="AE9" s="0">
-        <v>1.8369030052741635</v>
+        <v>1.6875022958904202</v>
       </c>
       <c r="AF9" s="0">
         <v>0.375</v>
@@ -4369,15 +4366,15 @@
         <v>0.375</v>
       </c>
       <c r="AK9" s="0">
-        <v>2.0847807056520242</v>
+        <v>1.5601318531102815</v>
       </c>
       <c r="AL9" s="0"/>
       <c r="AM9" s="0"/>
       <c r="AN9" s="0">
-        <v>2.0847807056520242</v>
+        <v>1.5601318531102815</v>
       </c>
       <c r="AO9" s="0">
-        <v>2.0847807056520242</v>
+        <v>1.5601318531102815</v>
       </c>
       <c r="AP9" s="0">
         <v>0.375</v>
@@ -4408,24 +4405,24 @@
         <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E10" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" s="0">
         <v>3</v>
       </c>
       <c r="G10" s="0">
-        <v>1.7215142619319215</v>
+        <v>1.6555985098407415</v>
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0">
-        <v>1.7215142619319215</v>
+        <v>1.6555985098407415</v>
       </c>
       <c r="K10" s="0">
-        <v>1.7215142619319215</v>
+        <v>1.6555985098407415</v>
       </c>
       <c r="L10" s="0">
         <v>0.40000000000000002</v>
@@ -4439,59 +4436,59 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="Q10" s="0">
-        <v>1.906133976397334</v>
+        <v>2.0393205973408546</v>
       </c>
       <c r="R10" s="0"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0">
-        <v>1.906133976397334</v>
+        <v>2.0393205973408546</v>
       </c>
       <c r="U10" s="0">
-        <v>1.906133976397334</v>
+        <v>2.0393205973408546</v>
       </c>
       <c r="V10" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="W10" s="0"/>
       <c r="X10" s="0"/>
       <c r="Y10" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Z10" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="AA10" s="0">
-        <v>1.8373459204548692</v>
+        <v>1.3430407317528836</v>
       </c>
       <c r="AB10" s="0"/>
       <c r="AC10" s="0"/>
       <c r="AD10" s="0">
-        <v>1.8373459204548692</v>
+        <v>1.3430407317528836</v>
       </c>
       <c r="AE10" s="0">
-        <v>1.8373459204548692</v>
+        <v>1.3430407317528836</v>
       </c>
       <c r="AF10" s="0">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="AG10" s="0"/>
       <c r="AH10" s="0"/>
       <c r="AI10" s="0">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="AJ10" s="0">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="AK10" s="0">
-        <v>1.3408692598362824</v>
+        <v>1.443331082030626</v>
       </c>
       <c r="AL10" s="0"/>
       <c r="AM10" s="0"/>
       <c r="AN10" s="0">
-        <v>1.3408692598362824</v>
+        <v>1.443331082030626</v>
       </c>
       <c r="AO10" s="0">
-        <v>1.3408692598362824</v>
+        <v>1.443331082030626</v>
       </c>
       <c r="AP10" s="0">
         <v>0.5</v>
@@ -4522,24 +4519,24 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E11" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="0">
         <v>3</v>
       </c>
       <c r="G11" s="0">
-        <v>3.4878819496791373</v>
+        <v>13.131529724204256</v>
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0">
-        <v>3.4878819496791373</v>
+        <v>13.131529724204256</v>
       </c>
       <c r="K11" s="0">
-        <v>3.4878819496791373</v>
+        <v>13.131529724204256</v>
       </c>
       <c r="L11" s="0">
         <v>0.31999999999999995</v>
@@ -4553,37 +4550,37 @@
         <v>0.31999999999999995</v>
       </c>
       <c r="Q11" s="0">
-        <v>4.2458810750647391</v>
+        <v>11.722008942627667</v>
       </c>
       <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0">
-        <v>4.2458810750647391</v>
+        <v>11.722008942627667</v>
       </c>
       <c r="U11" s="0">
-        <v>4.2458810750647391</v>
+        <v>11.722008942627667</v>
       </c>
       <c r="V11" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="W11" s="0"/>
       <c r="X11" s="0"/>
       <c r="Y11" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="Z11" s="0">
-        <v>0.55555555555555558</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AA11" s="0">
-        <v>3.3377526888068418</v>
+        <v>14.835460859932065</v>
       </c>
       <c r="AB11" s="0"/>
       <c r="AC11" s="0"/>
       <c r="AD11" s="0">
-        <v>3.3377526888068418</v>
+        <v>14.835460859932065</v>
       </c>
       <c r="AE11" s="0">
-        <v>3.3377526888068418</v>
+        <v>14.835460859932065</v>
       </c>
       <c r="AF11" s="0">
         <v>0.125</v>
@@ -4597,32 +4594,32 @@
         <v>0.125</v>
       </c>
       <c r="AK11" s="0">
-        <v>2.5680905685694779</v>
+        <v>12.813811826353138</v>
       </c>
       <c r="AL11" s="0"/>
       <c r="AM11" s="0"/>
       <c r="AN11" s="0">
-        <v>2.5680905685694779</v>
+        <v>12.813811826353138</v>
       </c>
       <c r="AO11" s="0">
-        <v>2.5680905685694779</v>
+        <v>12.813811826353138</v>
       </c>
       <c r="AP11" s="0">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AQ11" s="0"/>
       <c r="AR11" s="0"/>
       <c r="AS11" s="0">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AT11" s="0">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AU11" s="0" t="s">
         <v>58</v>
       </c>
       <c r="AV11" s="0" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
